--- a/data/par_evaluador.xlsx
+++ b/data/par_evaluador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\Desktop\Moni_HV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Moni_HV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E0FC2-5B23-4804-BE14-A45383C6493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876EE72C-EB8E-47D1-817C-49AD4BF34286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>what</t>
   </si>
@@ -43,16 +43,19 @@
     <t>Journals Incluyen</t>
   </si>
   <si>
-    <t>Revista Via Iuris</t>
-  </si>
-  <si>
-    <t>Estudios sobre el Mensaje Periodístico</t>
-  </si>
-  <si>
     <t>Desde 2018</t>
   </si>
   <si>
     <t>Journals Nacionales e Internacionales</t>
+  </si>
+  <si>
+    <t>\href{https://indexcomunicacion.es/}{index.comunicación}</t>
+  </si>
+  <si>
+    <t>\href{https://revistas.ucm.es/index.php/esmp/index}{Estudios sobre el Mensaje Periodístico}</t>
+  </si>
+  <si>
+    <t>\href{https://revistas.libertadores.edu.co/index.php/ViaIuris}{Via Iuris}</t>
   </si>
 </sst>
 </file>
@@ -893,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,21 +933,26 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
